--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/94.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/94.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2169409009610744</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.479984168592467</v>
+        <v>-2.490971279663407</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1289155408774226</v>
+        <v>0.1177161774109748</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.256239607758148</v>
+        <v>-0.2697139753488661</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2166088835095075</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.586173188176334</v>
+        <v>-2.599251717247843</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07093343174236849</v>
+        <v>0.06126984853997226</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.277441670323264</v>
+        <v>-0.290068858093979</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2344888145418901</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.72060641445905</v>
+        <v>-2.722971686843479</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08175708407193953</v>
+        <v>0.06734587832173641</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2885068512408273</v>
+        <v>-0.3016829676206156</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2698678200480731</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.881304044923891</v>
+        <v>-2.883235663707153</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04537104625918063</v>
+        <v>0.02882572806103606</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2954660461625226</v>
+        <v>-0.3093344225104199</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.3105582190625381</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.963086478707008</v>
+        <v>-2.964937587960939</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09179576849053581</v>
+        <v>0.07787249928173115</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2900481207909696</v>
+        <v>-0.3008723830412174</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.3351913682739736</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.849991937221</v>
+        <v>-2.854208318859359</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1538192120297226</v>
+        <v>0.1371714271578843</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2902737914413664</v>
+        <v>-0.3036225153726744</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.3282552363640495</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.666691866317229</v>
+        <v>-2.668440508897466</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1887542485524978</v>
+        <v>0.174969431337315</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3214999003288367</v>
+        <v>-0.3391406360624208</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2858489104942307</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.464331164344405</v>
+        <v>-2.462864915037503</v>
       </c>
       <c r="F9" t="n">
-        <v>0.207070166475242</v>
+        <v>0.198289748412777</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.334835815925933</v>
+        <v>-0.3483961823320726</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.212132006616937</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.056990761012801</v>
+        <v>-2.051868037248794</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2482166351700195</v>
+        <v>0.2393276512270933</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2979380546653825</v>
+        <v>-0.3090038455036225</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1128953592938148</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.689167118327703</v>
+        <v>-1.68415235052348</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2326996432328721</v>
+        <v>0.2262680296965639</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2673377243922557</v>
+        <v>-0.2719237179607243</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.005793041737236942</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.257265819264131</v>
+        <v>-1.254300994854458</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1608668454495464</v>
+        <v>0.1548389994012453</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2212929827425145</v>
+        <v>-0.2248628484635209</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1333051382220448</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.7515494802178017</v>
+        <v>-0.7507193781767475</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08608569111482049</v>
+        <v>0.08089099671095729</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1870276391228086</v>
+        <v>-0.188184048725923</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2580186535924113</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.3380574169405162</v>
+        <v>-0.3423567477909133</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0645732549314243</v>
+        <v>-0.07524381717113157</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1330600278821102</v>
+        <v>-0.1367201618632753</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.376877462576607</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1129136620022606</v>
+        <v>0.102645647409207</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2871400190042349</v>
+        <v>-0.2931965313243431</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.06010131652950753</v>
+        <v>-0.06753563965838962</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.4945009512470703</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5805136182758964</v>
+        <v>0.5716228045709399</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.406694840298359</v>
+        <v>-0.4093534845283037</v>
       </c>
       <c r="G16" t="n">
-        <v>0.002091075037138441</v>
+        <v>-0.001526974417331039</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.6148119978488412</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9776665165437781</v>
+        <v>0.9683597369372795</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.5787424846368047</v>
+        <v>-0.5748603395293033</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04572419033101776</v>
+        <v>0.04416584300192647</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.7374078762701387</v>
       </c>
       <c r="E18" t="n">
-        <v>1.416139100978634</v>
+        <v>1.402160328988245</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7984023667642339</v>
+        <v>-0.7922653449147949</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1096585153504562</v>
+        <v>0.1075195235371007</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.8579303270728136</v>
       </c>
       <c r="E19" t="n">
-        <v>1.741458591542513</v>
+        <v>1.731057004321251</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.986518981252284</v>
+        <v>-0.9739820617417276</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2159066972399679</v>
+        <v>0.2139256748818902</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.9724886066040155</v>
       </c>
       <c r="E20" t="n">
-        <v>2.047679026034703</v>
+        <v>2.042387354243237</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.155184615438162</v>
+        <v>-1.141163149000401</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3141826059637057</v>
+        <v>0.309303850470398</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.076910279291158</v>
       </c>
       <c r="E21" t="n">
-        <v>2.268639868965636</v>
+        <v>2.266364864841366</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.420360437988591</v>
+        <v>-1.39926450162123</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3837794345460731</v>
+        <v>0.3765744415916483</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.168972017737917</v>
       </c>
       <c r="E22" t="n">
-        <v>2.527664641491062</v>
+        <v>2.522960933231981</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.697953025676258</v>
+        <v>-1.672368073128031</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4976809010874194</v>
+        <v>0.4912425784236669</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.245720035674863</v>
       </c>
       <c r="E23" t="n">
-        <v>2.706042042612799</v>
+        <v>2.704759989350275</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.972263020281667</v>
+        <v>-1.951227466061303</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6284027600521237</v>
+        <v>0.6204902591126711</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.305188087093234</v>
       </c>
       <c r="E24" t="n">
-        <v>2.821057224309887</v>
+        <v>2.824373972950043</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.265141439969994</v>
+        <v>-2.236608740791043</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7322246774895316</v>
+        <v>0.7255320179035751</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.344374843269155</v>
       </c>
       <c r="E25" t="n">
-        <v>2.939397693536606</v>
+        <v>2.945927504301871</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.511464004481465</v>
+        <v>-2.483145387460052</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8369218310980729</v>
+        <v>0.8282786451878763</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.363134257856137</v>
       </c>
       <c r="E26" t="n">
-        <v>2.994794348922925</v>
+        <v>3.004043186065132</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.729206905921875</v>
+        <v>-2.705384014208772</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9397483579910281</v>
+        <v>0.9295346263382051</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.362228476204209</v>
       </c>
       <c r="E27" t="n">
-        <v>2.992285135258784</v>
+        <v>2.998684422999224</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.934725167238224</v>
+        <v>-2.912659456994832</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9868110572502617</v>
+        <v>0.9812113755170379</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.341710681919157</v>
       </c>
       <c r="E28" t="n">
-        <v>2.992825524978382</v>
+        <v>3.001873088297263</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.149269339689428</v>
+        <v>-3.131447762475189</v>
       </c>
       <c r="G28" t="n">
-        <v>1.029113325627477</v>
+        <v>1.025886235326803</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.303584339329017</v>
       </c>
       <c r="E29" t="n">
-        <v>2.987170340463575</v>
+        <v>2.994861440197367</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.306054024052592</v>
+        <v>-3.285753729208049</v>
       </c>
       <c r="G29" t="n">
-        <v>1.107510089733965</v>
+        <v>1.104456216905488</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.249708450708439</v>
       </c>
       <c r="E30" t="n">
-        <v>2.898594000262161</v>
+        <v>2.902242545750468</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.36435634154294</v>
+        <v>-3.343430268084052</v>
       </c>
       <c r="G30" t="n">
-        <v>1.097307946574</v>
+        <v>1.096554694538217</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.184088823686473</v>
       </c>
       <c r="E31" t="n">
-        <v>2.8354891673631</v>
+        <v>2.840974793929772</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.438199132916488</v>
+        <v>-3.417931773788489</v>
       </c>
       <c r="G31" t="n">
-        <v>1.133898917734147</v>
+        <v>1.136632582207331</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.109882786105698</v>
       </c>
       <c r="E32" t="n">
-        <v>2.761761955957795</v>
+        <v>2.766322942778517</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.46828469013844</v>
+        <v>-3.453259294266751</v>
       </c>
       <c r="G32" t="n">
-        <v>1.095289109133964</v>
+        <v>1.095322044850509</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.031667179357083</v>
       </c>
       <c r="E33" t="n">
-        <v>2.57915658470484</v>
+        <v>2.587916265464296</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.43761360906681</v>
+        <v>-3.42186454231216</v>
       </c>
       <c r="G33" t="n">
-        <v>1.063549447036672</v>
+        <v>1.063605559738933</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.9517859648605393</v>
       </c>
       <c r="E34" t="n">
-        <v>2.516035893868183</v>
+        <v>2.529543197175446</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.256551337126028</v>
+        <v>-3.243793016409812</v>
       </c>
       <c r="G34" t="n">
-        <v>1.006860979657001</v>
+        <v>1.010444873553572</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.8734454834277906</v>
       </c>
       <c r="E35" t="n">
-        <v>2.390026282052035</v>
+        <v>2.404757086236854</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.096598724767835</v>
+        <v>-3.080336409763702</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9750853322397803</v>
+        <v>0.9783362094468475</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.7977896289515701</v>
       </c>
       <c r="E36" t="n">
-        <v>2.272032247769709</v>
+        <v>2.285713988390521</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.026275480659461</v>
+        <v>-3.005011511145655</v>
       </c>
       <c r="G36" t="n">
-        <v>0.890791245109815</v>
+        <v>0.8913920169764118</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.7254438048727283</v>
       </c>
       <c r="E37" t="n">
-        <v>2.136777458335413</v>
+        <v>2.151832740320262</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.837002456568296</v>
+        <v>-2.817325805615727</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7830701047859567</v>
+        <v>0.7832140460656692</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6565509593436314</v>
       </c>
       <c r="E38" t="n">
-        <v>2.007705434801312</v>
+        <v>2.022841836236169</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.672824618721931</v>
+        <v>-2.65160852798125</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7130231547441492</v>
+        <v>0.7162752517925699</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5908641118069697</v>
       </c>
       <c r="E39" t="n">
-        <v>1.853162513885536</v>
+        <v>1.867169342227055</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.471194601719851</v>
+        <v>-2.450413994342368</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6478939951189614</v>
+        <v>0.6491864170329905</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5287802279829283</v>
       </c>
       <c r="E40" t="n">
-        <v>1.761804325477474</v>
+        <v>1.773503823898856</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.341801759909781</v>
+        <v>-2.31356914170379</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5659804283903437</v>
+        <v>0.5674954713513859</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4690732534441543</v>
       </c>
       <c r="E41" t="n">
-        <v>1.65161422625414</v>
+        <v>1.667386774954845</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.254161647947175</v>
+        <v>-2.22931896886255</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4918293221146985</v>
+        <v>0.4926704027279341</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4120458253562542</v>
       </c>
       <c r="E42" t="n">
-        <v>1.46169712592833</v>
+        <v>1.471991367110484</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.17291350467689</v>
+        <v>-2.149996955089435</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4638717781339211</v>
+        <v>0.4634515427876417</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3563043177281324</v>
       </c>
       <c r="E43" t="n">
-        <v>1.328083023114486</v>
+        <v>1.338568779389139</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.077004698099611</v>
+        <v>-2.049599132331291</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4375299140258492</v>
+        <v>0.4359526591557787</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3021351724978693</v>
       </c>
       <c r="E44" t="n">
-        <v>1.155766403757595</v>
+        <v>1.167254259704144</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.025284644552729</v>
+        <v>-1.9942909154431</v>
       </c>
       <c r="G44" t="n">
-        <v>0.416718200693852</v>
+        <v>0.4138308362101267</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2485163536745376</v>
       </c>
       <c r="E45" t="n">
-        <v>1.088157306660749</v>
+        <v>1.093029353026613</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.977055167038877</v>
+        <v>-1.946918986400755</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3845808703153201</v>
+        <v>0.3769763793176253</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1958903734702493</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9664842308562792</v>
+        <v>0.9716600177191632</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.954319153971739</v>
+        <v>-1.92277588633236</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3421700360576438</v>
+        <v>0.3342813220245844</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.143648784899482</v>
       </c>
       <c r="E47" t="n">
-        <v>0.839674403112237</v>
+        <v>0.841625539357154</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.940590449458817</v>
+        <v>-1.909446679862708</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3056479859339701</v>
+        <v>0.2993383565330115</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.09235989111371315</v>
       </c>
       <c r="E48" t="n">
-        <v>0.752355719346278</v>
+        <v>0.7534590658505153</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.993795659853581</v>
+        <v>-1.963029431156378</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2830016312063147</v>
+        <v>0.2767060299809213</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.04273336674406369</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7255216492520704</v>
+        <v>0.7286615208959695</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.948416951582848</v>
+        <v>-1.917320145878849</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2682610682906676</v>
+        <v>0.2625308635326197</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.004462224429498639</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6644966458607202</v>
+        <v>0.6734929758427541</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.940481883578356</v>
+        <v>-1.912435291178773</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2240009545410913</v>
+        <v>0.2158286273933441</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.04828530398995784</v>
       </c>
       <c r="E51" t="n">
-        <v>0.593919064830142</v>
+        <v>0.6020267403861539</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.994071343999471</v>
+        <v>-1.969550093111492</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1945875299049163</v>
+        <v>0.1898173402920697</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.08901310653951426</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4845645569339525</v>
+        <v>0.4914688589947405</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.947511219377878</v>
+        <v>-1.924217738812192</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1378502688711049</v>
+        <v>0.1320541926799681</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.126591454644833</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4495429116750789</v>
+        <v>0.4545436513037363</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.955199879428964</v>
+        <v>-1.9335190291326</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1456609130575406</v>
+        <v>0.1389908205366238</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1616549915041709</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3439638127679599</v>
+        <v>0.3444133243067232</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.903863465987756</v>
+        <v>-1.883920889620125</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1085612680529864</v>
+        <v>0.1024986565261107</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1946602375873542</v>
       </c>
       <c r="E55" t="n">
-        <v>0.3155506580416516</v>
+        <v>0.3198499888920487</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.915367179871901</v>
+        <v>-1.898147289405274</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1238220933058996</v>
+        <v>0.117660064708714</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2260991670858743</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2806558762835417</v>
+        <v>0.2847191678320373</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.863785578318641</v>
+        <v>-1.849109057074053</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0908741783479695</v>
+        <v>0.08467311482747199</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2558495409575658</v>
       </c>
       <c r="E57" t="n">
-        <v>0.2709477688717429</v>
+        <v>0.2756728243545101</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.858113316024884</v>
+        <v>-1.850446003197485</v>
       </c>
       <c r="G57" t="n">
-        <v>0.06513003650311072</v>
+        <v>0.06021346592784462</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2836694537655513</v>
       </c>
       <c r="E58" t="n">
-        <v>0.2156243039666335</v>
+        <v>0.2154571857012046</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.849271905894745</v>
+        <v>-1.845492227460937</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03877048469541315</v>
+        <v>0.03170638341731714</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.3091965612826797</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1895026212228677</v>
+        <v>0.1882315465325247</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.879801485369369</v>
+        <v>-1.881445221593205</v>
       </c>
       <c r="G59" t="n">
-        <v>0.01763734316676969</v>
+        <v>0.01166682966208295</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3321282881865981</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1815559647255172</v>
+        <v>0.180157416613734</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.81426733841482</v>
+        <v>-1.81648988936089</v>
       </c>
       <c r="G60" t="n">
-        <v>0.008338492529068799</v>
+        <v>0.0033914259199653</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3527212159238793</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1504957542621224</v>
+        <v>0.1478834640036105</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.843076331660338</v>
+        <v>-1.842458482014792</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.009551700761305237</v>
+        <v>-0.01638464210291373</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3705431505624597</v>
       </c>
       <c r="E62" t="n">
-        <v>0.1754713960542786</v>
+        <v>0.1691459087157245</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.793129317520763</v>
+        <v>-1.791808229334926</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.03718171733866901</v>
+        <v>-0.041975083937232</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3859917372284656</v>
       </c>
       <c r="E63" t="n">
-        <v>0.1231304432584673</v>
+        <v>0.1192403691821682</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.838093279731306</v>
+        <v>-1.833363954803802</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.05857590491696064</v>
+        <v>-0.06621272171052307</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3985983223870145</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1212653058289717</v>
+        <v>0.1198210136664323</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.802483670940048</v>
+        <v>-1.798111149608441</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.04007945047389903</v>
+        <v>-0.04435011505248893</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4080432647515648</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1176021222444229</v>
+        <v>0.1152514879562359</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.825739946344451</v>
+        <v>-1.815748835738641</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.07697172244835881</v>
+        <v>-0.08334539352037602</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4136028921054456</v>
       </c>
       <c r="E66" t="n">
-        <v>0.1138120751591105</v>
+        <v>0.112244579019868</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.841115436684593</v>
+        <v>-1.832380762672884</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.06891162070513322</v>
+        <v>-0.07538348900610688</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.415135145485779</v>
       </c>
       <c r="E67" t="n">
-        <v>0.1223405959820786</v>
+        <v>0.1189628552742478</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.801393742690699</v>
+        <v>-1.791825307113875</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.08674326161053945</v>
+        <v>-0.09353655810815932</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4126765257322023</v>
       </c>
       <c r="E68" t="n">
-        <v>0.03985065421393396</v>
+        <v>0.02969547494607879</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.833831154042191</v>
+        <v>-1.823799178751039</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.1228908204386898</v>
+        <v>-0.1318731222451585</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.4063235289084212</v>
       </c>
       <c r="E69" t="n">
-        <v>0.01592956527187513</v>
+        <v>0.00539196573969893</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.854934409457674</v>
+        <v>-1.843455702321275</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.1226102569273858</v>
+        <v>-0.133297896946042</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3964279913383197</v>
       </c>
       <c r="E70" t="n">
-        <v>0.08658643599043064</v>
+        <v>0.07546636221196006</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.792396192867312</v>
+        <v>-1.786112790055453</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.1186537014973211</v>
+        <v>-0.1278836310985494</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3825910884093721</v>
       </c>
       <c r="E71" t="n">
-        <v>0.09714233314290929</v>
+        <v>0.08477314181845867</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.775239124230389</v>
+        <v>-1.767494961397718</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.1637719736390819</v>
+        <v>-0.1708818189679341</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3652640015098194</v>
       </c>
       <c r="E72" t="n">
-        <v>0.1523261262130433</v>
+        <v>0.1378606375226096</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.726578432798075</v>
+        <v>-1.719391127543276</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1579295434765123</v>
+        <v>-0.167359527059714</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3441823938738375</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1850764268717071</v>
+        <v>0.1706615615974434</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.687312349549712</v>
+        <v>-1.679347395432059</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1378204587641288</v>
+        <v>-0.1460836640927115</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3195448493974128</v>
       </c>
       <c r="E74" t="n">
-        <v>0.2834944471131272</v>
+        <v>0.2663074923630436</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.610488570868557</v>
+        <v>-1.601585558750065</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.1619544100223727</v>
+        <v>-0.1729659179203822</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2912994836481986</v>
       </c>
       <c r="E75" t="n">
-        <v>0.3818685530658215</v>
+        <v>0.3657727464064402</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.554969931346888</v>
+        <v>-1.543342403565363</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.1445722806557298</v>
+        <v>-0.154330401563022</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2596837079673703</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4824670397266159</v>
+        <v>0.4678771272181256</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.550080197281399</v>
+        <v>-1.539627986643967</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.1586687673367309</v>
+        <v>-0.1680914318718117</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2255095140432727</v>
       </c>
       <c r="E77" t="n">
-        <v>0.609558040902639</v>
+        <v>0.594216706120395</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.473938309916848</v>
+        <v>-1.462257719036446</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.1805228351052906</v>
+        <v>-0.1906341000844199</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1891567092735048</v>
       </c>
       <c r="E78" t="n">
-        <v>0.7816276423854476</v>
+        <v>0.768517397438748</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.426498679679384</v>
+        <v>-1.417122979036413</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.1779593385009185</v>
+        <v>-0.1886786943947656</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1514834541309647</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9886176422947894</v>
+        <v>0.9736855642866435</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.366205581100131</v>
+        <v>-1.359126841725794</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.1574373374903766</v>
+        <v>-0.1691923386933419</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1126669464659285</v>
       </c>
       <c r="E80" t="n">
-        <v>1.156404380785473</v>
+        <v>1.146252861041678</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.335604640906328</v>
+        <v>-1.332652624830867</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1647118614019507</v>
+        <v>-0.1765809177714679</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.07355554083726394</v>
       </c>
       <c r="E81" t="n">
-        <v>1.33103076974521</v>
+        <v>1.319409341170452</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.28269097259505</v>
+        <v>-1.28116800066521</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.105494052975805</v>
+        <v>-0.1133736181987132</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.03469630126082637</v>
       </c>
       <c r="E82" t="n">
-        <v>1.566408917633113</v>
+        <v>1.551858040047935</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.298935599899558</v>
+        <v>-1.29955222970375</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.0724839261088466</v>
+        <v>-0.08085874692127419</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.003203423833600251</v>
       </c>
       <c r="E83" t="n">
-        <v>1.752973283998839</v>
+        <v>1.745416366813931</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.215447827904254</v>
+        <v>-1.21537158781966</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.05679615638220981</v>
+        <v>-0.06625785584060243</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.03973961739790154</v>
       </c>
       <c r="E84" t="n">
-        <v>1.964611489385678</v>
+        <v>1.95977969778448</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.128653065999621</v>
+        <v>-1.128920211256037</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.07620932160242375</v>
+        <v>-0.08494948490022342</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.07362647085903139</v>
       </c>
       <c r="E85" t="n">
-        <v>2.072079512628686</v>
+        <v>2.069148843776912</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.046416241312327</v>
+        <v>-1.051055297979673</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.04821335261901114</v>
+        <v>-0.05535613366440764</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.1036403316979078</v>
       </c>
       <c r="E86" t="n">
-        <v>2.177853176231688</v>
+        <v>2.176312516602222</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9787565207993114</v>
+        <v>-0.9852393676724666</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.0535647966367986</v>
+        <v>-0.06067098244159022</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1288865459999001</v>
       </c>
       <c r="E87" t="n">
-        <v>2.304525161902785</v>
+        <v>2.304478807931352</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.846621475626582</v>
+        <v>-0.8475473352138855</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.05324946764691985</v>
+        <v>-0.05933708592154222</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1488260131945039</v>
       </c>
       <c r="E88" t="n">
-        <v>2.391603536922105</v>
+        <v>2.38973839949261</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7745819147338385</v>
+        <v>-0.771610381196722</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.0360381160697664</v>
+        <v>-0.04462640911905581</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1632428565735164</v>
       </c>
       <c r="E89" t="n">
-        <v>2.41894628086072</v>
+        <v>2.421434757221853</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7273746642742156</v>
+        <v>-0.7190925514046538</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.03056041847189209</v>
+        <v>-0.03972203695732467</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1714241782157246</v>
       </c>
       <c r="E90" t="n">
-        <v>2.438993153664076</v>
+        <v>2.433723439016973</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6475586147529345</v>
+        <v>-0.6372643735707808</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.04013861277954359</v>
+        <v>-0.04751621328548811</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1731991120714785</v>
       </c>
       <c r="E91" t="n">
-        <v>2.382329083111474</v>
+        <v>2.376122530304886</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5029555711061212</v>
+        <v>-0.4943800863910435</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.02733454801257161</v>
+        <v>-0.03721770265859715</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1684791532346283</v>
       </c>
       <c r="E92" t="n">
-        <v>2.316012407928658</v>
+        <v>2.316383239700121</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4275224115679516</v>
+        <v>-0.4171470509357904</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.02159580436504914</v>
+        <v>-0.03199678166563377</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1578809165572408</v>
       </c>
       <c r="E93" t="n">
-        <v>2.23651656676267</v>
+        <v>2.227117689133982</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3383861641852834</v>
+        <v>-0.3299033874130715</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.02047050071644897</v>
+        <v>-0.03049332719744981</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1416956014019085</v>
       </c>
       <c r="E94" t="n">
-        <v>2.122599242283728</v>
+        <v>2.11779550703366</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2536816004398667</v>
+        <v>-0.2464729479613814</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.07560976957718039</v>
+        <v>-0.08257262402293623</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.120703994926656</v>
       </c>
       <c r="E95" t="n">
-        <v>1.976859306495456</v>
+        <v>1.970058690949715</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.1764290475229576</v>
+        <v>-0.171908315466901</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.08360826933205444</v>
+        <v>-0.08979774435969372</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.09687338042252085</v>
       </c>
       <c r="E96" t="n">
-        <v>1.813467046480742</v>
+        <v>1.803940695430614</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.06834805399981803</v>
+        <v>-0.06440369698328834</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.07468147030716986</v>
+        <v>-0.08024943616520287</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.07326000015240362</v>
       </c>
       <c r="E97" t="n">
-        <v>1.682975737531849</v>
+        <v>1.672554022928255</v>
       </c>
       <c r="F97" t="n">
-        <v>0.003065728278581837</v>
+        <v>0.00551455979572529</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.0773205970754587</v>
+        <v>-0.08358143282227752</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.05254721266992869</v>
       </c>
       <c r="E98" t="n">
-        <v>1.507546692961512</v>
+        <v>1.500480761921385</v>
       </c>
       <c r="F98" t="n">
-        <v>0.03874730770969672</v>
+        <v>0.0447373386760394</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1002170192805808</v>
+        <v>-0.1059789399138197</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.03703203241214898</v>
       </c>
       <c r="E99" t="n">
-        <v>1.41831163842921</v>
+        <v>1.411975172518475</v>
       </c>
       <c r="F99" t="n">
-        <v>0.08807403252101915</v>
+        <v>0.08919140720082161</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09003073405821148</v>
+        <v>-0.09709544525698424</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.0257299445617541</v>
       </c>
       <c r="E100" t="n">
-        <v>1.28052567818641</v>
+        <v>1.273186502683101</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1309520660170844</v>
+        <v>0.1298115143515655</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.119222757488727</v>
+        <v>-0.1282819093004659</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.01744081498647892</v>
       </c>
       <c r="E101" t="n">
-        <v>1.202272855359634</v>
+        <v>1.196185847005689</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1530318044360408</v>
+        <v>0.1564632181634254</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1680322695661671</v>
+        <v>-0.1737130707493985</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.006132162383883894</v>
       </c>
       <c r="E102" t="n">
-        <v>1.11184357614226</v>
+        <v>1.113185401631106</v>
       </c>
       <c r="F102" t="n">
-        <v>0.173318376065358</v>
+        <v>0.1748309793436932</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1692917557636519</v>
+        <v>-0.176873679696307</v>
       </c>
     </row>
   </sheetData>
